--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3441.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3441.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.380477283682356</v>
+        <v>1.328788876533508</v>
       </c>
       <c r="B1">
-        <v>2.882989861597919</v>
+        <v>2.462164640426636</v>
       </c>
       <c r="C1">
-        <v>3.47768060308925</v>
+        <v>5.968862533569336</v>
       </c>
       <c r="D1">
-        <v>4.04111674388617</v>
+        <v>1.841139554977417</v>
       </c>
       <c r="E1">
-        <v>1.431845114974236</v>
+        <v>1.275335550308228</v>
       </c>
     </row>
   </sheetData>
